--- a/Data/aearep-294/candidatepackages.xlsx
+++ b/Data/aearep-294/candidatepackages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
   <si>
     <t>(Potential) missing package found</t>
   </si>
@@ -25,9 +25,6 @@
     <t>reghdfe</t>
   </si>
   <si>
-    <t>ftools</t>
-  </si>
-  <si>
     <t>binscatter</t>
   </si>
   <si>
@@ -61,9 +58,6 @@
     <t>dirname</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-294</t>
-  </si>
-  <si>
     <t>/home/lv39/Workspace/AEA/all//aearep-294/data_editor_only/data_editor_only</t>
   </si>
   <si>
@@ -116,9 +110,6 @@
   </si>
   <si>
     <t>filename</t>
-  </si>
-  <si>
-    <t>config.do</t>
   </si>
   <si>
     <t>alltables.do</t>
@@ -219,7 +210,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D10"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -227,13 +218,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2">
@@ -265,7 +256,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -277,7 +268,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -289,7 +280,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -301,7 +292,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -313,10 +304,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>166</v>
+        <v>563</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.18611569702625275</v>
       </c>
       <c r="D8"/>
     </row>
@@ -325,10 +316,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>566</v>
+        <v>712</v>
       </c>
       <c r="C9">
-        <v>0.18766577541828156</v>
+        <v>0.2353719025850296</v>
       </c>
       <c r="D9"/>
     </row>
@@ -337,24 +328,12 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>745</v>
+        <v>1252</v>
       </c>
       <c r="C10">
-        <v>0.24701590836048126</v>
+        <v>0.41388431191444397</v>
       </c>
       <c r="D10"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>1388</v>
-      </c>
-      <c r="C11">
-        <v>0.46021220088005066</v>
-      </c>
-      <c r="D11"/>
     </row>
   </sheetData>
 </worksheet>
@@ -362,175 +341,167 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B20"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
